--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm Projects\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\OneDrive\Desktop\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B40A8F-16FF-4979-A81C-2A18ABC94484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF27ECA1-CA90-40F5-A058-A602632135D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC4285CE-B355-4670-84FA-04DEFD6C5A39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>File Pair</t>
   </si>
@@ -59,21 +59,12 @@
     <t>['Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match']</t>
   </si>
   <si>
-    <t>Petit papa noel Roudy midi.mid</t>
-  </si>
-  <si>
     <t>Twinkle (part 1) ref.mid</t>
   </si>
   <si>
     <t>['0', '0', '7', '7', '9', '9', '7', '5', '5', '4', '4', '2', '2', '0']</t>
   </si>
   <si>
-    <t>['Match', 'Match', 'Sliding', 'Match', 'Match', 'Sliding', 'Match', 'Gap in seq2', 'Match', 'Match', 'Gap in seq2', 'Gap in seq2', 'Match', 'Match', 'Match', 'Match']</t>
-  </si>
-  <si>
-    <t>['Match', 'Match', 'Sliding', 'Match', 'Match', 'Sliding', 'Match', 'Match', 'Gap in seq2', 'Match', 'Gap in seq2', 'Match', 'Match', 'Match', 'Match']</t>
-  </si>
-  <si>
     <t>Twinkle (part 1) test.mid</t>
   </si>
   <si>
@@ -86,34 +77,6 @@
     <t>['7', '7', '5', '5', '4', '4', '2', '7', '7', '5', '5', '4', '4', '2']</t>
   </si>
   <si>
-    <r>
-      <t>['Sliding', 'Sliding', 'Match', 'Match', 'Match', 'Match', 'Match', 'Mismatch', 'Gap in seq 2', 'Match', 'Sliding', 'Match', 'Match', 'Match', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mismatch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>',  'Match', 'Match', 'Match']</t>
-    </r>
-  </si>
-  <si>
-    <t>['Sliding', 'Sliding', 'Match', 'Match', 'Match', 'Match', 'Match', 'Mismatch', 'Match', 'Sliding', 'Match', 'Match', 'Gap in seq2', 'Match', 'Match', 'Match', 'Match']</t>
-  </si>
-  <si>
     <t>Twinkle (part 2) test.mid</t>
   </si>
   <si>
@@ -141,9 +104,6 @@
     <t>['0', '-', '0', '0', '2', '4', '2', '0', '4', '2', '2', '0']</t>
   </si>
   <si>
-    <t>['Match', 'Sliding', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match']</t>
-  </si>
-  <si>
     <t>['0', '/', '0', '0', '2', '4', '2', '0', '4', '2', '2', '0']</t>
   </si>
   <si>
@@ -181,6 +141,39 @@
   </si>
   <si>
     <t>Petit papa noel musescore midi (reference).mid</t>
+  </si>
+  <si>
+    <t>Roudy gamme do M.mid</t>
+  </si>
+  <si>
+    <t>['Match', 'Match', 'No Match', 'Match', 'Match', 'Sliding', ('Pitch Match', 'Duration Mismatch'), 'Match', 'No Match', ('Pitch Match', 'Duration Mismatch'), 'No Match', 'Match', ('Pitch Match', 'Duration Mismatch'), 'Match', 'Match']</t>
+  </si>
+  <si>
+    <t>['Match', 'Match', 'Sliding', 'Match', 'Match', 'Sliding', ('Pitch Match', 'Duration Mismatch'), 'Match', ('Pitch Match', 'Duration Mismatch'), 'No Match', 'No Match', 'Match', ('Pitch Match', 'Duration Mismatch'), 'Match', 'Match']</t>
+  </si>
+  <si>
+    <t>['No Match', 'Duration Mismatch', 'Match', 'Match', ('Pitch Match', 'Duration Mismatch'), 'Match', 'Match', 'No Match', 'Match', 'Duration Match', 'Match', ('Pitch Match', 'Duration Mismatch'), 'Duration Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch')]</t>
+  </si>
+  <si>
+    <t>['No Match', 'Sliding', ('Pitch Match', 'Duration Mismatch'), 'Match', 'Match', ('Pitch Match', 'Duration Mismatch'), 'Match', 'No Match', ('Pitch Match', 'Duration Mismatch'), 'Sliding', ('Pitch Match', 'Duration Mismatch'), 'Match', 'No Match', ('Pitch Match', 'Duration Mismatch'),  'Match', 'Match', 'Match']</t>
+  </si>
+  <si>
+    <t>8 out of 8</t>
+  </si>
+  <si>
+    <t>12 out of 15</t>
+  </si>
+  <si>
+    <t>[('Pitch Match', 'Duration Mismatch'), 'No Match', 'Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch')]</t>
+  </si>
+  <si>
+    <t>[('Pitch Match', 'Duration Mismatch'), 'No Match', 'Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch')]</t>
+  </si>
+  <si>
+    <t>11 out of 12</t>
+  </si>
+  <si>
+    <t>Au claire de la lune 1 (part 1) test.mid</t>
   </si>
 </sst>
 </file>
@@ -230,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,20 +231,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120DD21-AE9A-408D-A4AE-1C0F21295AED}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +610,7 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,208 +624,232 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C21:C22"/>
@@ -828,12 +860,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\OneDrive\Desktop\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF27ECA1-CA90-40F5-A058-A602632135D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBB020B-F895-427B-BACF-92C5815F8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC4285CE-B355-4670-84FA-04DEFD6C5A39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{AC4285CE-B355-4670-84FA-04DEFD6C5A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>File Pair</t>
   </si>
@@ -113,12 +113,6 @@
     <t>['0', '0', '0', '2', '4', '2', '0', '4', '2', '2', '0', '2', '2', '2', '2', '-', '-', '2', '0', '/', '-', '+']</t>
   </si>
   <si>
-    <t>['Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Sliding', 'Match', 'Match', 'Match', 'Sliding', 'Sliding', 'Match', 'Mismatch', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Sliding', 'Match', 'Extra notes in seq2']</t>
-  </si>
-  <si>
-    <t>['Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Sliding', 'Match', 'Match', 'Match', 'Mismatch', 'Sliding', 'Match', 'Mismatch', 'Match', 'Match', 'Match', 'Match', 'Match', 'Sliding', 'Match', 'Match']</t>
-  </si>
-  <si>
     <t>Au claire de la lune 1 (part 2) test.mid</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>['0', '0', '0', '2', '4', '2', '0', '4', '2', '2', '0']</t>
   </si>
   <si>
-    <t>['Match', 'Sliding', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match']</t>
-  </si>
-  <si>
     <t>Au claire de la lune 1 (part 3) test.mid</t>
   </si>
   <si>
@@ -174,6 +165,27 @@
   </si>
   <si>
     <t>Au claire de la lune 1 (part 1) test.mid</t>
+  </si>
+  <si>
+    <t>['Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'Sliding', 'Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'Sliding', 'Match', 'No Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'No Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch')]</t>
+  </si>
+  <si>
+    <t>['Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'),  ('Pitch Match', 'Duration Mismatch'),  ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'Sliding', 'Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'No Match', 'No Match', ('Pitch Match', 'Duration Mismatch'), 'No Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'No Match', 'No Match', 'No Match']</t>
+  </si>
+  <si>
+    <t>15 out of 25</t>
+  </si>
+  <si>
+    <t>[('Pitch Match', 'Duration Mismatch'), 'Sliding', 'Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'Match', ('Pitch Match', 'Duration Mismatch'), 'Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch')]</t>
+  </si>
+  <si>
+    <t>11 out of 11</t>
+  </si>
+  <si>
+    <t>['No Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'Match', 'No Match', 'Match', 'Match', 'No Match', 'Match', ('Pitch Match', 'Duration Mismatch'), 'Match', 'Match', 'No Match', 'Match', 'No Match', ('Pitch Match', 'Duration Mismatch'), ('Pitch Match', 'Duration Mismatch'), 'Match']</t>
+  </si>
+  <si>
+    <t>21 out of 21</t>
   </si>
 </sst>
 </file>
@@ -223,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -595,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120DD21-AE9A-408D-A4AE-1C0F21295AED}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,20 +658,20 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>40</v>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -672,13 +687,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -690,7 +705,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -699,28 +714,28 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -766,27 +781,27 @@
         <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -794,56 +809,83 @@
         <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
